--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1832231.982278199</v>
+        <v>1830344.400761797</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>315.0228819490326</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>126.0887386816669</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.3302879382942</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>32.94454038126188</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>164.6242057717098</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>22.11041309544132</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>252.4899179565723</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>246.7956238329215</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>62.83647259524243</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365811</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789691</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>19.45832445216777</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.3514698018584</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896905</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>115.6890940181684</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>169.7438101404419</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>101.2898147863551</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>138.4689389897763</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056521</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.29718497126841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>146.2787299119462</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056512</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9.687057991585489</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056501</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
@@ -2956,19 +2956,19 @@
         <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>43.21861285489417</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
-        <v>52.82788307477295</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298321</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463091</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224537</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898712</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415206</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2255.520561484594</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1886.558044544182</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1528.292345937431</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.232431292459</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C5" t="n">
-        <v>1375.269914352047</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1017.004215745297</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>631.2159631470527</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>220.2300583574451</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4598,19 +4598,19 @@
         <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>2130.832271356581</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>443.6717438918015</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>443.6717438918015</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W7" t="n">
-        <v>443.6717438918015</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="X7" t="n">
-        <v>443.6717438918015</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>76.27673242182033</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1097.103316533936</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C8" t="n">
-        <v>728.140799593524</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>728.140799593524</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>728.140799593524</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>317.1548948039164</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>303.2314907425073</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2457.500418892754</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2457.500418892754</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2126.437531549183</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834949</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.703156598057</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4966,40 +4966,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>598.044640063212</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
         <v>53.94298182036446</v>
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>731.0291971045607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>562.0930141766538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>542.4381409926459</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045607</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="X13" t="n">
-        <v>731.0291971045607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.0291971045607</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>857.5427825698953</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>827.9306256062546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>658.9944426783477</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>508.8778032660119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>360.9647096836188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>214.0747621857084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.579090436494</v>
+        <v>496.6650364395576</v>
       </c>
       <c r="X16" t="n">
-        <v>1009.579090436494</v>
+        <v>268.6754855415403</v>
       </c>
       <c r="Y16" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.7814158330672</v>
+        <v>199.5300356889274</v>
       </c>
       <c r="C19" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="W19" t="n">
-        <v>874.6385818722729</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="X19" t="n">
-        <v>646.6490309742554</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.7814158330672</v>
+        <v>199.5300356889274</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5941,19 +5941,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706321</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706321</v>
+        <v>241.9805482336718</v>
       </c>
       <c r="X22" t="n">
-        <v>303.4081673726149</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,7 +5978,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,28 +5987,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706316</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336709</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701559</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018224</v>
+        <v>796.3635653766198</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1103.683698656581</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1433.546326320614</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>573.2461374003676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>404.3099544724607</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>404.3099544724607</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>404.3099544724607</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>257.4200069745504</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>257.4200069745504</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>107.0019985224934</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765177</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706308</v>
       </c>
       <c r="W28" t="n">
-        <v>754.8946022306073</v>
+        <v>241.9805482336701</v>
       </c>
       <c r="X28" t="n">
-        <v>754.8946022306073</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>754.8946022306073</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6443,55 +6443,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508391</v>
+        <v>439.5324299542193</v>
       </c>
       <c r="C31" t="n">
-        <v>543.0423586043028</v>
+        <v>326.3571123076832</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733379</v>
+        <v>232.0013381767184</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723157</v>
+        <v>232.0013381767184</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557761</v>
+        <v>140.8722559601789</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864676</v>
+        <v>164.2510079864669</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6646,25 +6646,25 @@
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1827.450326843945</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1659.425776914821</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1426.05800340975</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1227.134380485234</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>993.4780757296447</v>
+        <v>902.6804289818938</v>
       </c>
       <c r="X31" t="n">
-        <v>821.2493901129983</v>
+        <v>730.4517433652474</v>
       </c>
       <c r="Y31" t="n">
-        <v>656.2176762508391</v>
+        <v>565.4200295030881</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,61 +6689,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,34 +6920,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,7 +7172,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525395</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7713,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7783,31 +7783,31 @@
         <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649689</v>
@@ -7816,7 +7816,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>15.83804904622878</v>
+        <v>433.7515527292971</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>199.6230805871084</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>308.1251096272028</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>85.30006332127925</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>189.0022427662469</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>38.86002301949912</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>127.6461250100647</v>
+        <v>62.794659289832</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>295.3773510571274</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,13 +11148,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165113</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>129.1571485660446</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>50.80447444520923</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165287</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>65.9570063122727</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.11571436231844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.2874683808264</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>75.26883114644303</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338594</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>100.7321874726865</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338704</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>68.07169897992628</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>89.88967028027315</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.192202140984591e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894073.2603407087</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894073.2603407082</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>929607.6849577212</v>
+        <v>929607.6849577213</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="F2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="G2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="F2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="G2" t="n">
-        <v>488786.3246721362</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="J2" t="n">
         <v>488786.3246721358</v>
       </c>
-      <c r="I2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="J2" t="n">
-        <v>488786.3246721359</v>
-      </c>
       <c r="K2" t="n">
-        <v>508527.6716815879</v>
+        <v>508527.6716815878</v>
       </c>
       <c r="L2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="M2" t="n">
+        <v>513151.1061651765</v>
+      </c>
+      <c r="N2" t="n">
         <v>513151.1061651763</v>
       </c>
-      <c r="N2" t="n">
-        <v>513151.1061651764</v>
-      </c>
       <c r="O2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651765</v>
       </c>
     </row>
     <row r="3">
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284593</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284588</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26424,28 +26424,28 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15045.66962143914</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143912</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563567</v>
+        <v>33210.29213563571</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275954</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275959</v>
@@ -26454,10 +26454,10 @@
         <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26482,19 +26482,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
@@ -26503,10 +26503,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.809364</v>
+        <v>-316450.8093639999</v>
       </c>
       <c r="C6" t="n">
-        <v>273517.0698505453</v>
+        <v>273517.0698505451</v>
       </c>
       <c r="D6" t="n">
         <v>273517.0698505451</v>
       </c>
       <c r="E6" t="n">
-        <v>-143406.7073749159</v>
+        <v>-143504.1665008882</v>
       </c>
       <c r="F6" t="n">
-        <v>381753.3291019802</v>
+        <v>381655.8699760081</v>
       </c>
       <c r="G6" t="n">
-        <v>381753.3291019804</v>
+        <v>381655.8699760081</v>
       </c>
       <c r="H6" t="n">
-        <v>381753.32910198</v>
+        <v>381655.869976008</v>
       </c>
       <c r="I6" t="n">
-        <v>381753.3291019804</v>
+        <v>381655.8699760081</v>
       </c>
       <c r="J6" t="n">
-        <v>205330.1099093872</v>
+        <v>205232.6507834153</v>
       </c>
       <c r="K6" t="n">
-        <v>334526.5657128837</v>
+        <v>334508.071974949</v>
       </c>
       <c r="L6" t="n">
         <v>367628.6366815246</v>
       </c>
       <c r="M6" t="n">
-        <v>243170.5282485543</v>
+        <v>243170.5282485544</v>
       </c>
       <c r="N6" t="n">
-        <v>377971.5434823915</v>
+        <v>377971.5434823913</v>
       </c>
       <c r="O6" t="n">
         <v>377971.5434823915</v>
       </c>
       <c r="P6" t="n">
-        <v>333808.9381795455</v>
+        <v>333808.9381795458</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.5680943134016e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.5680943134016e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.5680943134016e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,17 +26975,17 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990171</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.5680943134016e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.2032566285572</v>
       </c>
     </row>
     <row r="3">
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>66.9074881232292</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>126.0489046421611</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>17.25436541380054</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>349.7893012822187</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>249.1599642490852</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>157.721567086496</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>33.79195628540543</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>77.1271489314357</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>153.6118477624154</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.3620382482288</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724688</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4.387512129155835e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,46 +32938,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,43 +33017,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,43 +33099,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>326.262426096695</v>
+        <v>744.1759297797634</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>510.0474576375748</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>590.488811868311</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623873</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556543</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,13 +36923,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>471.365945007355</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686864</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>321.2237252606072</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>438.070502060531</v>
+        <v>373.2190363402982</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>628.5719244551402</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,13 +37868,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145243</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520626</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
